--- a/class_schedules_spring_2019/JEWISH STUDIES (JWST).xlsx
+++ b/class_schedules_spring_2019/JEWISH STUDIES (JWST).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>104</t>
   </si>
@@ -37,12 +37,18 @@
     <t>995F</t>
   </si>
   <si>
+    <t>995</t>
+  </si>
+  <si>
     <t>995H</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>19838</t>
   </si>
   <si>
@@ -64,9 +70,15 @@
     <t>16626</t>
   </si>
   <si>
+    <t>19237</t>
+  </si>
+  <si>
     <t>16623</t>
   </si>
   <si>
+    <t>19238</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -76,40 +88,70 @@
     <t>F</t>
   </si>
   <si>
-    <t>SLP Elementary Hebrew II</t>
-  </si>
-  <si>
-    <t>Jewish Mysticism MWF</t>
-  </si>
-  <si>
-    <t>Contemporary Israeli Arts W</t>
-  </si>
-  <si>
-    <t>Eden in Literature, Art, Film MWF</t>
-  </si>
-  <si>
-    <t>Ottoman Jewish Communities TR</t>
-  </si>
-  <si>
-    <t>Private Reading -</t>
+    <t>II</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>SLP Elementary Hebrew</t>
+  </si>
+  <si>
+    <t>Jewish Mysticism</t>
+  </si>
+  <si>
+    <t>Contemporary Israeli Arts</t>
+  </si>
+  <si>
+    <t>Eden in Literature, Art, Film</t>
+  </si>
+  <si>
+    <t>Ottoman Jewish Communities</t>
+  </si>
+  <si>
+    <t>Honors</t>
+  </si>
+  <si>
+    <t>Private Reading</t>
   </si>
   <si>
     <t>TWRF</t>
   </si>
   <si>
-    <t>0230-0320pm</t>
-  </si>
-  <si>
-    <t>0700-1000pm</t>
-  </si>
-  <si>
-    <t>0900-0950am</t>
-  </si>
-  <si>
-    <t>0100-0215pm</t>
-  </si>
-  <si>
-    <t>Honors</t>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>0910</t>
+  </si>
+  <si>
+    <t>0320pm</t>
+  </si>
+  <si>
+    <t>1000pm</t>
+  </si>
+  <si>
+    <t>0950am</t>
+  </si>
+  <si>
+    <t>0215pm</t>
   </si>
   <si>
     <t>Full</t>
@@ -118,13 +160,13 @@
     <t>Half</t>
   </si>
   <si>
-    <t>0910-1005am</t>
+    <t>1005am</t>
   </si>
   <si>
     <t>KING</t>
   </si>
   <si>
-    <t>TBA</t>
+    <t>Wurtzel Ellen</t>
   </si>
   <si>
     <t>327</t>
@@ -140,9 +182,6 @@
   </si>
   <si>
     <t>Shonkoff Samuel</t>
-  </si>
-  <si>
-    <t>Wurtzel Ellen</t>
   </si>
   <si>
     <t>Chapman Cynthia</t>
@@ -506,13 +545,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,8 +582,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -552,34 +597,40 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -587,34 +638,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -622,34 +679,40 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -657,34 +720,40 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -692,34 +761,40 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -727,31 +802,31 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -759,34 +834,34 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -794,31 +869,101 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
